--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>2702.461901718222</v>
+        <v>3164.756897753223</v>
       </c>
       <c r="R2">
-        <v>2702.461901718222</v>
+        <v>28482.81207977901</v>
       </c>
       <c r="S2">
-        <v>0.02070891669257505</v>
+        <v>0.02302972545954165</v>
       </c>
       <c r="T2">
-        <v>0.02070891669257505</v>
+        <v>0.02302972545954165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>2592.874657300153</v>
+        <v>2746.613047072478</v>
       </c>
       <c r="R3">
-        <v>2592.874657300153</v>
+        <v>24719.5174236523</v>
       </c>
       <c r="S3">
-        <v>0.01986915161992787</v>
+        <v>0.01998692046854545</v>
       </c>
       <c r="T3">
-        <v>0.01986915161992787</v>
+        <v>0.01998692046854545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>3586.235049436335</v>
+        <v>3840.248958923539</v>
       </c>
       <c r="R4">
-        <v>3586.235049436335</v>
+        <v>34562.24063031186</v>
       </c>
       <c r="S4">
-        <v>0.02748125434499222</v>
+        <v>0.02794523626225017</v>
       </c>
       <c r="T4">
-        <v>0.02748125434499222</v>
+        <v>0.02794523626225018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>36123.83488305211</v>
+        <v>40446.68922645997</v>
       </c>
       <c r="R5">
-        <v>36123.83488305211</v>
+        <v>364020.2030381398</v>
       </c>
       <c r="S5">
-        <v>0.2768162935928276</v>
+        <v>0.2943278674245289</v>
       </c>
       <c r="T5">
-        <v>0.2768162935928276</v>
+        <v>0.294327867424529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>34658.98110652706</v>
+        <v>35102.66599597228</v>
       </c>
       <c r="R6">
-        <v>34658.98110652706</v>
+        <v>315923.9939637505</v>
       </c>
       <c r="S6">
-        <v>0.2655911455877535</v>
+        <v>0.2554397658029108</v>
       </c>
       <c r="T6">
-        <v>0.2655911455877535</v>
+        <v>0.2554397658029108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>47937.23926146212</v>
+        <v>49079.71171627369</v>
       </c>
       <c r="R7">
-        <v>47937.23926146212</v>
+        <v>441717.4054464632</v>
       </c>
       <c r="S7">
-        <v>0.3673421977591919</v>
+        <v>0.3571497979075956</v>
       </c>
       <c r="T7">
-        <v>0.3673421977591919</v>
+        <v>0.3571497979075956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>881.1495458112455</v>
+        <v>986.5380338812028</v>
       </c>
       <c r="R8">
-        <v>881.1495458112455</v>
+        <v>8878.842304930826</v>
       </c>
       <c r="S8">
-        <v>0.006752233038439354</v>
+        <v>0.007178971658710861</v>
       </c>
       <c r="T8">
-        <v>0.006752233038439354</v>
+        <v>0.007178971658710863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>845.4181445343975</v>
+        <v>856.1915884329104</v>
       </c>
       <c r="R9">
-        <v>845.4181445343975</v>
+        <v>7705.724295896193</v>
       </c>
       <c r="S9">
-        <v>0.006478423956475701</v>
+        <v>0.006230449244419762</v>
       </c>
       <c r="T9">
-        <v>0.006478423956475701</v>
+        <v>0.006230449244419763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>1169.307653504409</v>
+        <v>1197.106690956388</v>
       </c>
       <c r="R10">
-        <v>1169.307653504409</v>
+        <v>10773.96021860749</v>
       </c>
       <c r="S10">
-        <v>0.008960383407816878</v>
+        <v>0.008711265771496777</v>
       </c>
       <c r="T10">
-        <v>0.008960383407816878</v>
+        <v>0.008711265771496779</v>
       </c>
     </row>
   </sheetData>
